--- a/results/I3_N5_M3_T15_C100_DepCentral_s4_mean_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>865.0746384130804</v>
+        <v>442.3346384127427</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2200000286102295</v>
+        <v>0.1649999618530273</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>723.0500000003376</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109.69</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.764833041814828</v>
+        <v>5.764833041814825</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.79636161641807</v>
+        <v>11.82484646040542</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>10.64971265316879</v>
       </c>
     </row>
     <row r="7">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>103.8560000000214</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>81.36100000000806</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>118.5429999999214</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>149.9060000000409</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>62.29499999999825</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>103.8560000000361</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>149.9060000000956</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>118.5429999999029</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.85600000003582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>49.9060000000955</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>18.54299999990243</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6.011</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.958</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1318,23 +1318,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
